--- a/biology/Médecine/Ligament_stylo-hyoïdien/Ligament_stylo-hyoïdien.xlsx
+++ b/biology/Médecine/Ligament_stylo-hyoïdien/Ligament_stylo-hyoïdien.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ligament_stylo-hyo%C3%AFdien</t>
+          <t>Ligament_stylo-hyoïdien</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le ligament stylo-hyoïdien est un cordon fibreux qui relie la petite corne de l'os hyoïde au processus styloïde de l'os temporal.
 C'est l'une des deux fleurs blanches du bouquet de Riolan.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ligament_stylo-hyo%C3%AFdien</t>
+          <t>Ligament_stylo-hyoïdien</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Aspect clinique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le ligament stylo-hyoïdien contient fréquemment un peu de cartilage en son centre. Celui-ci peut s'ossifier, allonger l'apophyse styloïde et entraîner un syndrome d'Eagle.
 </t>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ligament_stylo-hyo%C3%AFdien</t>
+          <t>Ligament_stylo-hyoïdien</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Anatomie comparée</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Chez de nombreux animaux, l'épiphyal est un os distinct au centre du ligament stylo-hyoïdien qui est similaire à celui observé lors de l'ossification du ligament[réf. nécessaire].
 </t>
